--- a/db2-ht13/src/grupp9_uppgift3/Excel Employee Report.xlsx
+++ b/db2-ht13/src/grupp9_uppgift3/Excel Employee Report.xlsx
@@ -1,172 +1,313 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="9210"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="22755" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Access Employee Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Uppgift 3B - 2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Uppgift_3B___2" localSheetId="0" hidden="1">'Uppgift 3B - 2'!$A$2:$E$10</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" odcFile="C:\Users\August\Dropbox\Basgrupp HT13 (1)\Databaser 2\Uppgift 3\Rapporter\MS Query\Uppgift 3B - 2.dqy" name="Uppgift 3B - 2" type="1" refreshedVersion="4" background="1" refreshOnLoad="1" saveData="1">
+    <dbPr connection="DSN=grupp9;UID=grupp9;Trusted_Connection=Yes;APP=2007 Microsoft Office system;WSID=SVALAN-PC;DATABASE=Demo Database NAV (5-0)" command="SELECT &quot;CRONUS Sverige AB$Employee&quot;.&quot;First Name&quot; AS 'Förnamn', &quot;CRONUS Sverige AB$Employee&quot;.&quot;Last Name&quot; AS 'Efternamn', &quot;CRONUS Sverige AB$Employee&quot;.&quot;Job Title&quot; AS 'Titel', &quot;CRONUS Sverige AB$Employee&quot;.&quot;Phone No_&quot; AS 'Telefonnummer', &quot;CRONUS Sverige AB$Employee&quot;.&quot;E-Mail&quot; AS 'Mail'  FROM &quot;Demo Database NAV (5-0)&quot;.dbo.&quot;CRONUS Sverige AB$Employee&quot; &quot;CRONUS Sverige AB$Employee&quot;  ORDER BY &quot;CRONUS Sverige AB$Employee&quot;.&quot;Last Name&quot;"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>E-Mail</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+  <si>
+    <t>Förnamn</t>
+  </si>
+  <si>
+    <t>Efternamn</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Telefonnummer</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
   <si>
     <t>Andreas</t>
   </si>
   <si>
+    <t>Försäljningschef</t>
+  </si>
+  <si>
+    <t>0678-9012-3456</t>
+  </si>
+  <si>
+    <t>ab@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Lidman</t>
+  </si>
+  <si>
+    <t>Sekreterare</t>
+  </si>
+  <si>
+    <t>4465-4899-4643</t>
+  </si>
+  <si>
+    <t>al@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Produktionschef</t>
+  </si>
+  <si>
+    <t>0678-2534-2013</t>
+  </si>
+  <si>
+    <t>bm@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Servicechef</t>
+  </si>
+  <si>
+    <t>020-2584-1095</t>
+  </si>
+  <si>
+    <t>lm@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Pike</t>
+  </si>
+  <si>
+    <t>Produktionsassistent</t>
+  </si>
+  <si>
+    <t>0678-2135-4649</t>
+  </si>
+  <si>
+    <t>jp@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>Britta</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>0678-1234-5466</t>
+  </si>
+  <si>
+    <t>bs@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>0678-8712-5466</t>
+  </si>
+  <si>
+    <t>ds@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>Jens</t>
+  </si>
+  <si>
+    <t>Toft</t>
+  </si>
+  <si>
+    <t>Verkställande direktör</t>
+  </si>
+  <si>
+    <t>6549-3216-7415</t>
+  </si>
+  <si>
+    <t>jt@cronus-demosite.com</t>
+  </si>
+  <si>
+    <t>CRONUS Employee Report</t>
+  </si>
+  <si>
     <t>Berglund</t>
-  </si>
-  <si>
-    <t>Försäljningschef</t>
-  </si>
-  <si>
-    <t>0678-9012-3456</t>
-  </si>
-  <si>
-    <t>ab@cronus-demosite.com</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Lidman</t>
-  </si>
-  <si>
-    <t>Sekreterare</t>
-  </si>
-  <si>
-    <t>4465-4899-4643</t>
-  </si>
-  <si>
-    <t>al@cronus-demosite.com</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Produktionschef</t>
-  </si>
-  <si>
-    <t>0678-2534-2013</t>
-  </si>
-  <si>
-    <t>bm@cronus-demosite.com</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Servicechef</t>
-  </si>
-  <si>
-    <t>020-2584-1095</t>
-  </si>
-  <si>
-    <t>lm@cronus-demosite.com</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Pike</t>
-  </si>
-  <si>
-    <t>Produktionsassistent</t>
-  </si>
-  <si>
-    <t>0678-2135-4649</t>
-  </si>
-  <si>
-    <t>jp@cronus-demosite.com</t>
-  </si>
-  <si>
-    <t>Britta</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
-    <t>0678-1234-5466</t>
-  </si>
-  <si>
-    <t>bs@cronus-demosite.com</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Simpson</t>
-  </si>
-  <si>
-    <t>0678-8712-5466</t>
-  </si>
-  <si>
-    <t>ds@cronus-demosite.com</t>
-  </si>
-  <si>
-    <t>Jens</t>
-  </si>
-  <si>
-    <t>Toft</t>
-  </si>
-  <si>
-    <t>Verkställande direktör</t>
-  </si>
-  <si>
-    <t>6549-3216-7415</t>
-  </si>
-  <si>
-    <t>jt@cronus-demosite.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,18 +316,179 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -195,58 +497,247 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD0D7E5"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFD0D7E5"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFD0D7E5"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Anteckning" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Beräkning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Bra" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dålig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Färg1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Färg2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Färg3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Färg4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Färg5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Färg6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Förklarande text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Indata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kontrollcell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Länkad cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Rubrik" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Rubrik 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Rubrik 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Rubrik 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Rubrik 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Summa" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Varningstext" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uppgift 3B - 2" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="Förnamn" tableColumnId="1"/>
+      <queryTableField id="2" name="Efternamn" tableColumnId="2"/>
+      <queryTableField id="3" name="Titel" tableColumnId="3"/>
+      <queryTableField id="4" name="Telefonnummer" tableColumnId="4"/>
+      <queryTableField id="5" name="Mail" tableColumnId="5"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell_Uppgift_3B___2" displayName="Tabell_Uppgift_3B___2" ref="A2:E10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A2:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" uniqueName="1" name="Förnamn" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Efternamn" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Titel" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Telefonnummer" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Mail" queryTableFieldId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -320,6 +811,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -354,6 +846,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,176 +1022,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/db2-ht13/src/grupp9_uppgift3/Excel Employee Report.xlsx
+++ b/db2-ht13/src/grupp9_uppgift3/Excel Employee Report.xlsx
@@ -45,6 +45,9 @@
     <t>Andreas</t>
   </si>
   <si>
+    <t>Berglund</t>
+  </si>
+  <si>
     <t>Försäljningschef</t>
   </si>
   <si>
@@ -154,9 +157,6 @@
   </si>
   <si>
     <t>CRONUS Employee Report</t>
-  </si>
-  <si>
-    <t>Berglund</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1069,135 +1069,135 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
